--- a/GWD Data/Panel Board PRICE.xlsx
+++ b/GWD Data/Panel Board PRICE.xlsx
@@ -101,7 +101,7 @@
     <t>UNIT TOTAL</t>
   </si>
   <si>
-    <t>Cartage@ 1.00 %</t>
+    <t>Cartage@ 1.00 % (for material)</t>
   </si>
   <si>
     <t>Contractors Profit &amp; Overhead@ 15.00 %</t>
@@ -205,6 +205,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10.0"/>
@@ -345,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -395,6 +398,9 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -889,10 +895,13 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19">
+        <f>F8*100.5%/D13</f>
+        <v>1533.0471</v>
+      </c>
       <c r="F15" s="18">
-        <f>F14*1%</f>
-        <v>15.3983085</v>
+        <f>E15*1%</f>
+        <v>15.330471</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
@@ -908,7 +917,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="18">
         <f>F14+F15</f>
-        <v>1555.229159</v>
+        <v>1555.161321</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="5"/>
@@ -921,26 +930,29 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18">
+        <f>F16</f>
+        <v>1555.161321</v>
+      </c>
       <c r="F17" s="18">
-        <f>F16*15%</f>
-        <v>233.2843738</v>
+        <f>E17*15%</f>
+        <v>233.2741982</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21">
+      <c r="E18" s="21"/>
+      <c r="F18" s="22">
         <f>round(F16+F17,2)</f>
-        <v>1788.51</v>
+        <v>1788.44</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="5"/>
@@ -1050,7 +1062,10 @@
       <c r="G24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <f>F24+F12</f>
+        <v>7.73355</v>
+      </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25">
@@ -1069,7 +1084,7 @@
         <f>F20+F22+F24</f>
         <v>14.6127</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
@@ -1089,7 +1104,7 @@
         <f>F25/D25</f>
         <v>14.6127</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
@@ -1100,12 +1115,15 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="19">
+        <f>F20*100.5%/D25</f>
+        <v>7.236</v>
+      </c>
       <c r="F27" s="18">
-        <f>F26*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G27" s="20"/>
+        <f>E27*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -1119,9 +1137,9 @@
       <c r="E28" s="9"/>
       <c r="F28" s="18">
         <f>F26+F27</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
@@ -1132,51 +1150,57 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18">
+        <f>F28</f>
+        <v>14.68506</v>
+      </c>
       <c r="F29" s="18">
-        <f>F28*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G29" s="20"/>
+        <f>E29*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21">
+      <c r="E30" s="21"/>
+      <c r="F30" s="22">
         <f>round(F28+F29,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <f>F30+F18</f>
+        <v>1805.33</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="22" t="str">
+      <c r="A31" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F18," + ",F30," x Cost Index")                                           </f>
-        <v>Say ₹ 1788.51 + 16.97 x Cost Index</v>
+        <v>Say ₹ 1788.44 + 16.89 x Cost Index</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="24">
-        <f>(F8+F10)*1.005*1.01*1.15</f>
-        <v>1788.513532</v>
-      </c>
-      <c r="I31" s="24">
-        <f>(F20+F22)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H31" s="25">
+        <f>((F8*1.005*1.01)+(F10*1.005))*1.15</f>
+        <v>1788.435519</v>
+      </c>
+      <c r="I31" s="25">
+        <f>((F20*1.005*1.01)+(F22*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="32">
@@ -1433,10 +1457,13 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="19">
+        <f>F39*100.5%/D44</f>
+        <v>1575.639</v>
+      </c>
       <c r="F46" s="18">
-        <f>F45*1%</f>
-        <v>15.8242275</v>
+        <f>E46*1%</f>
+        <v>15.75639</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="5"/>
@@ -1452,7 +1479,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="18">
         <f>F45+F46</f>
-        <v>1598.246978</v>
+        <v>1598.17914</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="5"/>
@@ -1465,26 +1492,29 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="18"/>
+      <c r="E48" s="18">
+        <f>F47</f>
+        <v>1598.17914</v>
+      </c>
       <c r="F48" s="18">
-        <f>F47*15%</f>
-        <v>239.7370466</v>
+        <f>E48*15%</f>
+        <v>239.726871</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21">
+      <c r="E49" s="21"/>
+      <c r="F49" s="22">
         <f>round(F47+F48,2)</f>
-        <v>1837.98</v>
+        <v>1837.91</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="5"/>
@@ -1594,7 +1624,10 @@
       <c r="G55" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="5">
+        <f>F55+F43</f>
+        <v>7.94545</v>
+      </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56">
@@ -1613,7 +1646,7 @@
         <f>F51+F53+F55</f>
         <v>14.6127</v>
       </c>
-      <c r="G56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
@@ -1633,7 +1666,7 @@
         <f>F56/D56</f>
         <v>14.6127</v>
       </c>
-      <c r="G57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
@@ -1644,12 +1677,15 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="18"/>
+      <c r="E58" s="19">
+        <f>F51*100.5%/D56</f>
+        <v>7.236</v>
+      </c>
       <c r="F58" s="18">
-        <f>F57*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G58" s="20"/>
+        <f>E58*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
@@ -1663,9 +1699,9 @@
       <c r="E59" s="9"/>
       <c r="F59" s="18">
         <f>F57+F58</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G59" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
@@ -1676,51 +1712,57 @@
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="18">
+        <f>F59</f>
+        <v>14.68506</v>
+      </c>
       <c r="F60" s="18">
-        <f>F59*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G60" s="20"/>
+        <f>E60*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G60" s="21"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21">
+      <c r="E61" s="21"/>
+      <c r="F61" s="22">
         <f>round(F59+F60,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5">
+        <f>F61+F49</f>
+        <v>1854.8</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="22" t="str">
+      <c r="A62" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F49," + ",F61," x Cost Index")                                           </f>
-        <v>Say ₹ 1837.98 + 16.97 x Cost Index</v>
+        <v>Say ₹ 1837.91 + 16.89 x Cost Index</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H62" s="24">
-        <f>(F39+F41)*1.005*1.01*1.15</f>
-        <v>1837.984024</v>
-      </c>
-      <c r="I62" s="24">
-        <f>(F51+F53)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H62" s="25">
+        <f>((F39*1.005*1.01)+(F41*1.005))*1.15</f>
+        <v>1837.906011</v>
+      </c>
+      <c r="I62" s="25">
+        <f>((F51*1.005*1.01)+(F53*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="63">
@@ -1977,10 +2019,13 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="18"/>
+      <c r="E77" s="19">
+        <f>F70*100.5%/D75</f>
+        <v>1618.22085</v>
+      </c>
       <c r="F77" s="18">
-        <f>F76*1%</f>
-        <v>16.250046</v>
+        <f>E77*1%</f>
+        <v>16.1822085</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="5"/>
@@ -1996,7 +2041,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="18">
         <f>F76+F77</f>
-        <v>1641.254646</v>
+        <v>1641.186809</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="5"/>
@@ -2009,26 +2054,29 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="18"/>
+      <c r="E79" s="18">
+        <f>F78</f>
+        <v>1641.186809</v>
+      </c>
       <c r="F79" s="18">
-        <f>F78*15%</f>
-        <v>246.1881969</v>
+        <f>E79*15%</f>
+        <v>246.1780213</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21">
+      <c r="E80" s="21"/>
+      <c r="F80" s="22">
         <f>round(F78+F79,2)</f>
-        <v>1887.44</v>
+        <v>1887.36</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="5"/>
@@ -2138,7 +2186,10 @@
       <c r="G86" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="5"/>
+      <c r="H86" s="5">
+        <f>F86+F74</f>
+        <v>8.1573</v>
+      </c>
       <c r="I86" s="5"/>
     </row>
     <row r="87">
@@ -2157,7 +2208,7 @@
         <f>F82+F84+F86</f>
         <v>14.6127</v>
       </c>
-      <c r="G87" s="20"/>
+      <c r="G87" s="21"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
@@ -2177,7 +2228,7 @@
         <f>F87/D87</f>
         <v>14.6127</v>
       </c>
-      <c r="G88" s="20"/>
+      <c r="G88" s="21"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
@@ -2188,12 +2239,15 @@
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="18"/>
+      <c r="E89" s="19">
+        <f>F82*100.5%/D87</f>
+        <v>7.236</v>
+      </c>
       <c r="F89" s="18">
-        <f>F88*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G89" s="20"/>
+        <f>E89*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G89" s="21"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
@@ -2207,9 +2261,9 @@
       <c r="E90" s="9"/>
       <c r="F90" s="18">
         <f>F88+F89</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G90" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G90" s="21"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
@@ -2220,51 +2274,57 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="18"/>
+      <c r="E91" s="18">
+        <f>F90</f>
+        <v>14.68506</v>
+      </c>
       <c r="F91" s="18">
-        <f>F90*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G91" s="20"/>
+        <f>E91*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G91" s="21"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21">
+      <c r="E92" s="21"/>
+      <c r="F92" s="22">
         <f>round(F90+F91,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5">
+        <f>F92+F80</f>
+        <v>1904.25</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="22" t="str">
+      <c r="A93" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F80," + ",F92," x Cost Index")                                           </f>
-        <v>Say ₹ 1887.44 + 16.97 x Cost Index</v>
+        <v>Say ₹ 1887.36 + 16.89 x Cost Index</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="23" t="s">
+      <c r="G93" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H93" s="24">
-        <f>(F70+F72)*1.005*1.01*1.15</f>
-        <v>1887.442843</v>
-      </c>
-      <c r="I93" s="24">
-        <f>(F82+F84)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H93" s="25">
+        <f>((F70*1.005*1.01)+(F72*1.005))*1.15</f>
+        <v>1887.36483</v>
+      </c>
+      <c r="I93" s="25">
+        <f>((F82*1.005*1.01)+(F84*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="94">
@@ -2521,10 +2581,13 @@
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="18"/>
+      <c r="E108" s="19">
+        <f>F101*100.5%/D106</f>
+        <v>1660.8027</v>
+      </c>
       <c r="F108" s="18">
-        <f>F107*1%</f>
-        <v>16.6758645</v>
+        <f>E108*1%</f>
+        <v>16.608027</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="5"/>
@@ -2540,7 +2603,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="18">
         <f>F107+F108</f>
-        <v>1684.262315</v>
+        <v>1684.194477</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="5"/>
@@ -2553,26 +2616,29 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="18">
+        <f>F109</f>
+        <v>1684.194477</v>
+      </c>
       <c r="F110" s="18">
-        <f>F109*15%</f>
-        <v>252.6393472</v>
+        <f>E110*15%</f>
+        <v>252.6291716</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21">
+      <c r="E111" s="21"/>
+      <c r="F111" s="22">
         <f>round(F109+F110,2)</f>
-        <v>1936.9</v>
+        <v>1936.82</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="5"/>
@@ -2682,7 +2748,10 @@
       <c r="G117" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H117" s="5"/>
+      <c r="H117" s="5">
+        <f>F117+F105</f>
+        <v>8.36915</v>
+      </c>
       <c r="I117" s="5"/>
     </row>
     <row r="118">
@@ -2701,7 +2770,7 @@
         <f>F113+F115+F117</f>
         <v>14.6127</v>
       </c>
-      <c r="G118" s="20"/>
+      <c r="G118" s="21"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
@@ -2721,7 +2790,7 @@
         <f>F118/D118</f>
         <v>14.6127</v>
       </c>
-      <c r="G119" s="20"/>
+      <c r="G119" s="21"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
@@ -2732,12 +2801,15 @@
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="18"/>
+      <c r="E120" s="19">
+        <f>F113*100.5%/D118</f>
+        <v>7.236</v>
+      </c>
       <c r="F120" s="18">
-        <f>F119*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G120" s="20"/>
+        <f>E120*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G120" s="21"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
@@ -2751,9 +2823,9 @@
       <c r="E121" s="9"/>
       <c r="F121" s="18">
         <f>F119+F120</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G121" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G121" s="21"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
@@ -2764,51 +2836,57 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="18"/>
+      <c r="E122" s="18">
+        <f>F121</f>
+        <v>14.68506</v>
+      </c>
       <c r="F122" s="18">
-        <f>F121*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G122" s="20"/>
+        <f>E122*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G122" s="21"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="21">
+      <c r="E123" s="21"/>
+      <c r="F123" s="22">
         <f>round(F121+F122,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="I123" s="5">
+        <f>F123+F111</f>
+        <v>1953.71</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="22" t="str">
+      <c r="A124" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F111," + ",F123," x Cost Index")                                           </f>
-        <v>Say ₹ 1936.9 + 16.97 x Cost Index</v>
+        <v>Say ₹ 1936.82 + 16.89 x Cost Index</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H124" s="24">
-        <f>(F101+F103)*1.005*1.01*1.15</f>
-        <v>1936.901662</v>
-      </c>
-      <c r="I124" s="24">
-        <f>(F113+F115)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H124" s="25">
+        <f>((F101*1.005*1.01)+(F103*1.005))*1.15</f>
+        <v>1936.823649</v>
+      </c>
+      <c r="I124" s="25">
+        <f>((F113*1.005*1.01)+(F115*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="125">
@@ -3065,10 +3143,13 @@
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="18"/>
+      <c r="E139" s="19">
+        <f>F132*100.5%/D137</f>
+        <v>3470.65695</v>
+      </c>
       <c r="F139" s="18">
-        <f>F138*1%</f>
-        <v>34.774407</v>
+        <f>E139*1%</f>
+        <v>34.7065695</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139" s="5"/>
@@ -3084,7 +3165,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="18">
         <f>F138+F139</f>
-        <v>3512.215107</v>
+        <v>3512.14727</v>
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="5"/>
@@ -3097,26 +3178,29 @@
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="18"/>
+      <c r="E141" s="18">
+        <f>F140</f>
+        <v>3512.14727</v>
+      </c>
       <c r="F141" s="18">
-        <f>F140*15%</f>
-        <v>526.8322661</v>
+        <f>E141*15%</f>
+        <v>526.8220904</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="21">
+      <c r="E142" s="21"/>
+      <c r="F142" s="22">
         <f>round(F140+F141,2)</f>
-        <v>4039.05</v>
+        <v>4038.97</v>
       </c>
       <c r="G142" s="9"/>
       <c r="H142" s="5"/>
@@ -3226,7 +3310,10 @@
       <c r="G148" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H148" s="5"/>
+      <c r="H148" s="5">
+        <f>F148+F136</f>
+        <v>17.3734</v>
+      </c>
       <c r="I148" s="5"/>
     </row>
     <row r="149">
@@ -3245,7 +3332,7 @@
         <f>F144+F146+F148</f>
         <v>14.6127</v>
       </c>
-      <c r="G149" s="20"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
     </row>
@@ -3265,7 +3352,7 @@
         <f>F149/D149</f>
         <v>14.6127</v>
       </c>
-      <c r="G150" s="20"/>
+      <c r="G150" s="21"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
     </row>
@@ -3276,12 +3363,15 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="18"/>
+      <c r="E151" s="19">
+        <f>F144*100.5%/D149</f>
+        <v>7.236</v>
+      </c>
       <c r="F151" s="18">
-        <f>F150*1%</f>
-        <v>0.146127</v>
-      </c>
-      <c r="G151" s="20"/>
+        <f>E151*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G151" s="21"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
@@ -3295,9 +3385,9 @@
       <c r="E152" s="9"/>
       <c r="F152" s="18">
         <f>F150+F151</f>
-        <v>14.758827</v>
-      </c>
-      <c r="G152" s="20"/>
+        <v>14.68506</v>
+      </c>
+      <c r="G152" s="21"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
     </row>
@@ -3308,51 +3398,57 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="18"/>
+      <c r="E153" s="18">
+        <f>F152</f>
+        <v>14.68506</v>
+      </c>
       <c r="F153" s="18">
-        <f>F152*15%</f>
-        <v>2.21382405</v>
-      </c>
-      <c r="G153" s="20"/>
+        <f>E153*15%</f>
+        <v>2.202759</v>
+      </c>
+      <c r="G153" s="21"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="21">
+      <c r="E154" s="21"/>
+      <c r="F154" s="22">
         <f>round(F152+F153,2)</f>
-        <v>16.97</v>
+        <v>16.89</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
+      <c r="I154" s="5">
+        <f>F154+F142</f>
+        <v>4055.86</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="22" t="str">
+      <c r="A155" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F142," + ",F154," x Cost Index")                                           </f>
-        <v>Say ₹ 4039.05 + 16.97 x Cost Index</v>
+        <v>Say ₹ 4038.97 + 16.89 x Cost Index</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="23" t="s">
+      <c r="G155" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H155" s="24">
-        <f>(F132+F134)*1.005*1.01*1.15</f>
-        <v>4039.047373</v>
-      </c>
-      <c r="I155" s="24">
-        <f>(F144+F146)*1.005*1.01*1.15</f>
-        <v>16.97265105</v>
+      <c r="H155" s="25">
+        <f>((F132*1.005*1.01)+(F134*1.005))*1.15</f>
+        <v>4038.96936</v>
+      </c>
+      <c r="I155" s="25">
+        <f>((F144*1.005*1.01)+(F146*1.005))*1.15</f>
+        <v>16.887819</v>
       </c>
     </row>
     <row r="156">
@@ -3609,10 +3705,13 @@
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="18"/>
+      <c r="E170" s="19">
+        <f>F163*100.5%/D168</f>
+        <v>4126.45965</v>
+      </c>
       <c r="F170" s="18">
-        <f>F169*1%</f>
-        <v>42.282159</v>
+        <f>E170*1%</f>
+        <v>41.2645965</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170" s="5"/>
@@ -3628,7 +3727,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="18">
         <f>F169+F170</f>
-        <v>4270.498059</v>
+        <v>4269.480497</v>
       </c>
       <c r="G171" s="9"/>
       <c r="H171" s="5"/>
@@ -3641,26 +3740,29 @@
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="18"/>
+      <c r="E172" s="18">
+        <f>F171</f>
+        <v>4269.480497</v>
+      </c>
       <c r="F172" s="18">
-        <f>F171*15%</f>
-        <v>640.5747089</v>
+        <f>E172*15%</f>
+        <v>640.4220745</v>
       </c>
       <c r="G172" s="9"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
     </row>
     <row r="173">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="21">
+      <c r="E173" s="21"/>
+      <c r="F173" s="22">
         <f>round(F171+F172,2)</f>
-        <v>4911.07</v>
+        <v>4909.9</v>
       </c>
       <c r="G173" s="9"/>
       <c r="H173" s="5"/>
@@ -3770,7 +3872,10 @@
       <c r="G179" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H179" s="5"/>
+      <c r="H179" s="5">
+        <f>F179+F167</f>
+        <v>21.6224</v>
+      </c>
       <c r="I179" s="5"/>
     </row>
     <row r="180">
@@ -3789,7 +3894,7 @@
         <f>F175+F177+F179</f>
         <v>117.8865</v>
       </c>
-      <c r="G180" s="20"/>
+      <c r="G180" s="21"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
     </row>
@@ -3809,7 +3914,7 @@
         <f>F180/D180</f>
         <v>117.8865</v>
       </c>
-      <c r="G181" s="20"/>
+      <c r="G181" s="21"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
     </row>
@@ -3820,13 +3925,19 @@
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="18"/>
+      <c r="E182" s="19">
+        <f>F175*100.5%/D180</f>
+        <v>7.236</v>
+      </c>
       <c r="F182" s="18">
-        <f>F181*1%</f>
-        <v>1.178865</v>
-      </c>
-      <c r="G182" s="20"/>
-      <c r="H182" s="5"/>
+        <f>E182*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G182" s="21"/>
+      <c r="H182" s="5">
+        <f>E182+E170</f>
+        <v>4133.69565</v>
+      </c>
       <c r="I182" s="5"/>
     </row>
     <row r="183">
@@ -3839,9 +3950,9 @@
       <c r="E183" s="9"/>
       <c r="F183" s="18">
         <f>F181+F182</f>
-        <v>119.065365</v>
-      </c>
-      <c r="G183" s="20"/>
+        <v>117.95886</v>
+      </c>
+      <c r="G183" s="21"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
     </row>
@@ -3852,51 +3963,60 @@
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="18"/>
+      <c r="E184" s="18">
+        <f>F183</f>
+        <v>117.95886</v>
+      </c>
       <c r="F184" s="18">
-        <f>F183*15%</f>
-        <v>17.85980475</v>
-      </c>
-      <c r="G184" s="20"/>
-      <c r="H184" s="5"/>
+        <f>E184*15%</f>
+        <v>17.693829</v>
+      </c>
+      <c r="G184" s="21"/>
+      <c r="H184" s="5">
+        <f>E184+E172</f>
+        <v>4387.439357</v>
+      </c>
       <c r="I184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="21">
+      <c r="E185" s="21"/>
+      <c r="F185" s="22">
         <f>round(F183+F184,2)</f>
-        <v>136.93</v>
+        <v>135.65</v>
       </c>
       <c r="G185" s="9"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
+      <c r="I185" s="5">
+        <f>F185+F173</f>
+        <v>5045.55</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="22" t="str">
+      <c r="A186" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F173," + ",F185," x Cost Index")                                           </f>
-        <v>Say ₹ 4911.07 + 136.93 x Cost Index</v>
+        <v>Say ₹ 4909.9 + 135.65 x Cost Index</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="23" t="s">
+      <c r="G186" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H186" s="24">
-        <f>(F163+F165)*1.005*1.01*1.15</f>
-        <v>4911.072768</v>
-      </c>
-      <c r="I186" s="24">
-        <f>(F175+F177)*1.005*1.01*1.15</f>
-        <v>136.9251698</v>
+      <c r="H186" s="25">
+        <f>((F163*1.005*1.01)+(F165*1.005))*1.15</f>
+        <v>4909.902571</v>
+      </c>
+      <c r="I186" s="25">
+        <f>((F175*1.005*1.01)+(F177*1.005))*1.15</f>
+        <v>135.652689</v>
       </c>
     </row>
     <row r="187">
@@ -4153,10 +4273,13 @@
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="18"/>
+      <c r="E201" s="19">
+        <f>F194*100.5%/D199</f>
+        <v>16011.861</v>
+      </c>
       <c r="F201" s="18">
-        <f>F200*1%</f>
-        <v>161.8145475</v>
+        <f>E201*1%</f>
+        <v>160.11861</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="5"/>
@@ -4172,7 +4295,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="18">
         <f>F200+F201</f>
-        <v>16343.2693</v>
+        <v>16341.57336</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="5"/>
@@ -4185,26 +4308,29 @@
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="18"/>
+      <c r="E203" s="18">
+        <f>F202</f>
+        <v>16341.57336</v>
+      </c>
       <c r="F203" s="18">
-        <f>F202*15%</f>
-        <v>2451.490395</v>
+        <f>E203*15%</f>
+        <v>2451.236004</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
     </row>
     <row r="204">
-      <c r="A204" s="19" t="s">
+      <c r="A204" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="21">
+      <c r="E204" s="21"/>
+      <c r="F204" s="22">
         <f>round(F202+F203,2)</f>
-        <v>18794.76</v>
+        <v>18792.81</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="5"/>
@@ -4314,7 +4440,10 @@
       <c r="G210" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H210" s="5"/>
+      <c r="H210" s="5">
+        <f>F210+F198</f>
+        <v>81.45825</v>
+      </c>
       <c r="I210" s="5"/>
     </row>
     <row r="211">
@@ -4333,7 +4462,7 @@
         <f>F206+F208+F210</f>
         <v>191.6535</v>
       </c>
-      <c r="G211" s="20"/>
+      <c r="G211" s="21"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
     </row>
@@ -4353,7 +4482,7 @@
         <f>F211/D211</f>
         <v>191.6535</v>
       </c>
-      <c r="G212" s="20"/>
+      <c r="G212" s="21"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
     </row>
@@ -4364,13 +4493,19 @@
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
-      <c r="E213" s="18"/>
+      <c r="E213" s="19">
+        <f>F206*100.5%/D211</f>
+        <v>7.236</v>
+      </c>
       <c r="F213" s="18">
-        <f>F212*1%</f>
-        <v>1.916535</v>
-      </c>
-      <c r="G213" s="20"/>
-      <c r="H213" s="5"/>
+        <f>E213*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G213" s="21"/>
+      <c r="H213" s="5">
+        <f>E213+E201</f>
+        <v>16019.097</v>
+      </c>
       <c r="I213" s="5"/>
     </row>
     <row r="214">
@@ -4383,9 +4518,9 @@
       <c r="E214" s="9"/>
       <c r="F214" s="18">
         <f>F212+F213</f>
-        <v>193.570035</v>
-      </c>
-      <c r="G214" s="20"/>
+        <v>191.72586</v>
+      </c>
+      <c r="G214" s="21"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
     </row>
@@ -4396,51 +4531,60 @@
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="18"/>
+      <c r="E215" s="18">
+        <f>F214</f>
+        <v>191.72586</v>
+      </c>
       <c r="F215" s="18">
-        <f>F214*15%</f>
-        <v>29.03550525</v>
-      </c>
-      <c r="G215" s="20"/>
-      <c r="H215" s="5"/>
+        <f>E215*15%</f>
+        <v>28.758879</v>
+      </c>
+      <c r="G215" s="21"/>
+      <c r="H215" s="5">
+        <f>E215+E203</f>
+        <v>16533.29922</v>
+      </c>
       <c r="I215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="20"/>
-      <c r="F216" s="21">
+      <c r="E216" s="21"/>
+      <c r="F216" s="22">
         <f>round(F214+F215,2)</f>
-        <v>222.61</v>
+        <v>220.48</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
+      <c r="I216" s="5">
+        <f>F216+F204</f>
+        <v>19013.29</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="22" t="str">
+      <c r="A217" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F204," + ",F216," x Cost Index")                                           </f>
-        <v>Say ₹ 18794.76 + 222.61 x Cost Index</v>
+        <v>Say ₹ 18792.81 + 220.48 x Cost Index</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="4"/>
-      <c r="G217" s="23" t="s">
+      <c r="G217" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H217" s="24">
-        <f>(F194+F196)*1.005*1.01*1.15</f>
-        <v>18794.75969</v>
-      </c>
-      <c r="I217" s="24">
-        <f>(F206+F208)*1.005*1.01*1.15</f>
-        <v>222.6055403</v>
+      <c r="H217" s="25">
+        <f>((F194*1.005*1.01)+(F196*1.005))*1.15</f>
+        <v>18792.80936</v>
+      </c>
+      <c r="I217" s="25">
+        <f>((F206*1.005*1.01)+(F208*1.005))*1.15</f>
+        <v>220.484739</v>
       </c>
     </row>
     <row r="218">
@@ -4697,10 +4841,13 @@
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="18"/>
+      <c r="E232" s="19">
+        <f>F225*100.5%/D230</f>
+        <v>6770.97645</v>
+      </c>
       <c r="F232" s="18">
-        <f>F231*1%</f>
-        <v>69.405702</v>
+        <f>E232*1%</f>
+        <v>67.7097645</v>
       </c>
       <c r="G232" s="9"/>
       <c r="H232" s="5"/>
@@ -4716,7 +4863,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="18">
         <f>F231+F232</f>
-        <v>7009.975902</v>
+        <v>7008.279965</v>
       </c>
       <c r="G233" s="9"/>
       <c r="H233" s="5"/>
@@ -4729,26 +4876,29 @@
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="18"/>
+      <c r="E234" s="18">
+        <f>F233</f>
+        <v>7008.279965</v>
+      </c>
       <c r="F234" s="18">
-        <f>F233*15%</f>
-        <v>1051.496385</v>
+        <f>E234*15%</f>
+        <v>1051.241995</v>
       </c>
       <c r="G234" s="9"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
     </row>
     <row r="235">
-      <c r="A235" s="19" t="s">
+      <c r="A235" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="20"/>
-      <c r="F235" s="21">
+      <c r="E235" s="21"/>
+      <c r="F235" s="22">
         <f>round(F233+F234,2)</f>
-        <v>8061.47</v>
+        <v>8059.52</v>
       </c>
       <c r="G235" s="9"/>
       <c r="H235" s="5"/>
@@ -4858,7 +5008,10 @@
       <c r="G241" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H241" s="5"/>
+      <c r="H241" s="5">
+        <f>F241+F229</f>
+        <v>35.4837</v>
+      </c>
       <c r="I241" s="5"/>
     </row>
     <row r="242">
@@ -4877,7 +5030,7 @@
         <f>F237+F239+F241</f>
         <v>191.6535</v>
       </c>
-      <c r="G242" s="20"/>
+      <c r="G242" s="21"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
     </row>
@@ -4897,7 +5050,7 @@
         <f>F242/D242</f>
         <v>191.6535</v>
       </c>
-      <c r="G243" s="20"/>
+      <c r="G243" s="21"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
     </row>
@@ -4908,13 +5061,19 @@
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="18"/>
+      <c r="E244" s="19">
+        <f>F237*100.5%/D242</f>
+        <v>7.236</v>
+      </c>
       <c r="F244" s="18">
-        <f>F243*1%</f>
-        <v>1.916535</v>
-      </c>
-      <c r="G244" s="20"/>
-      <c r="H244" s="5"/>
+        <f>E244*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G244" s="21"/>
+      <c r="H244" s="5">
+        <f>E244+E232</f>
+        <v>6778.21245</v>
+      </c>
       <c r="I244" s="5"/>
     </row>
     <row r="245">
@@ -4927,9 +5086,9 @@
       <c r="E245" s="9"/>
       <c r="F245" s="18">
         <f>F243+F244</f>
-        <v>193.570035</v>
-      </c>
-      <c r="G245" s="20"/>
+        <v>191.72586</v>
+      </c>
+      <c r="G245" s="21"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
     </row>
@@ -4940,51 +5099,60 @@
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="18"/>
+      <c r="E246" s="18">
+        <f>F245</f>
+        <v>191.72586</v>
+      </c>
       <c r="F246" s="18">
-        <f>F245*15%</f>
-        <v>29.03550525</v>
-      </c>
-      <c r="G246" s="20"/>
-      <c r="H246" s="5"/>
+        <f>E246*15%</f>
+        <v>28.758879</v>
+      </c>
+      <c r="G246" s="21"/>
+      <c r="H246" s="5">
+        <f>E246+E234</f>
+        <v>7200.005825</v>
+      </c>
       <c r="I246" s="5"/>
     </row>
     <row r="247">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="20"/>
-      <c r="F247" s="21">
+      <c r="E247" s="21"/>
+      <c r="F247" s="22">
         <f>round(F245+F246,2)</f>
-        <v>222.61</v>
+        <v>220.48</v>
       </c>
       <c r="G247" s="9"/>
       <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
+      <c r="I247" s="5">
+        <f>F247+F235</f>
+        <v>8280</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="22" t="str">
+      <c r="A248" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F235," + ",F247," x Cost Index")                                           </f>
-        <v>Say ₹ 8061.47 + 222.61 x Cost Index</v>
+        <v>Say ₹ 8059.52 + 220.48 x Cost Index</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="23" t="s">
+      <c r="G248" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H248" s="24">
-        <f>(F225+F227)*1.005*1.01*1.15</f>
-        <v>8061.472287</v>
-      </c>
-      <c r="I248" s="24">
-        <f>(F237+F239)*1.005*1.01*1.15</f>
-        <v>222.6055403</v>
+      <c r="H248" s="25">
+        <f>((F225*1.005*1.01)+(F227*1.005))*1.15</f>
+        <v>8059.521959</v>
+      </c>
+      <c r="I248" s="25">
+        <f>((F237*1.005*1.01)+(F239*1.005))*1.15</f>
+        <v>220.484739</v>
       </c>
     </row>
     <row r="249">
@@ -5241,10 +5409,13 @@
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="18"/>
+      <c r="E263" s="19">
+        <f>F256*100.5%/D261</f>
+        <v>7920.7668</v>
+      </c>
       <c r="F263" s="18">
-        <f>F262*1%</f>
-        <v>80.9036055</v>
+        <f>E263*1%</f>
+        <v>79.207668</v>
       </c>
       <c r="G263" s="9"/>
       <c r="H263" s="5"/>
@@ -5260,7 +5431,7 @@
       <c r="E264" s="9"/>
       <c r="F264" s="18">
         <f>F262+F263</f>
-        <v>8171.264156</v>
+        <v>8169.568218</v>
       </c>
       <c r="G264" s="9"/>
       <c r="H264" s="5"/>
@@ -5273,26 +5444,29 @@
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="18"/>
+      <c r="E265" s="18">
+        <f>F264</f>
+        <v>8169.568218</v>
+      </c>
       <c r="F265" s="18">
-        <f>F264*15%</f>
-        <v>1225.689623</v>
+        <f>E265*15%</f>
+        <v>1225.435233</v>
       </c>
       <c r="G265" s="9"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
     </row>
     <row r="266">
-      <c r="A266" s="19" t="s">
+      <c r="A266" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="21">
+      <c r="E266" s="21"/>
+      <c r="F266" s="22">
         <f>round(F264+F265,2)</f>
-        <v>9396.95</v>
+        <v>9395</v>
       </c>
       <c r="G266" s="9"/>
       <c r="H266" s="5"/>
@@ -5402,7 +5576,10 @@
       <c r="G272" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H272" s="5"/>
+      <c r="H272" s="5">
+        <f>F272+F260</f>
+        <v>41.20405</v>
+      </c>
       <c r="I272" s="5"/>
     </row>
     <row r="273">
@@ -5421,7 +5598,7 @@
         <f>F268+F270+F272</f>
         <v>191.6535</v>
       </c>
-      <c r="G273" s="20"/>
+      <c r="G273" s="21"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
     </row>
@@ -5441,7 +5618,7 @@
         <f>F273/D273</f>
         <v>191.6535</v>
       </c>
-      <c r="G274" s="20"/>
+      <c r="G274" s="21"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
     </row>
@@ -5452,13 +5629,19 @@
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="18"/>
+      <c r="E275" s="19">
+        <f>F268*100.5%/D273</f>
+        <v>7.236</v>
+      </c>
       <c r="F275" s="18">
-        <f>F274*1%</f>
-        <v>1.916535</v>
-      </c>
-      <c r="G275" s="20"/>
-      <c r="H275" s="5"/>
+        <f>E275*1%</f>
+        <v>0.07236</v>
+      </c>
+      <c r="G275" s="21"/>
+      <c r="H275" s="5">
+        <f>E275+E263</f>
+        <v>7928.0028</v>
+      </c>
       <c r="I275" s="5"/>
     </row>
     <row r="276">
@@ -5471,9 +5654,9 @@
       <c r="E276" s="9"/>
       <c r="F276" s="18">
         <f>F274+F275</f>
-        <v>193.570035</v>
-      </c>
-      <c r="G276" s="20"/>
+        <v>191.72586</v>
+      </c>
+      <c r="G276" s="21"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
     </row>
@@ -5484,51 +5667,60 @@
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="18"/>
+      <c r="E277" s="18">
+        <f>F276</f>
+        <v>191.72586</v>
+      </c>
       <c r="F277" s="18">
-        <f>F276*15%</f>
-        <v>29.03550525</v>
-      </c>
-      <c r="G277" s="20"/>
-      <c r="H277" s="5"/>
+        <f>E277*15%</f>
+        <v>28.758879</v>
+      </c>
+      <c r="G277" s="21"/>
+      <c r="H277" s="5">
+        <f>E277+E265</f>
+        <v>8361.294078</v>
+      </c>
       <c r="I277" s="5"/>
     </row>
     <row r="278">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="20"/>
-      <c r="F278" s="21">
+      <c r="E278" s="21"/>
+      <c r="F278" s="22">
         <f>round(F276+F277,2)</f>
-        <v>222.61</v>
+        <v>220.48</v>
       </c>
       <c r="G278" s="9"/>
       <c r="H278" s="5"/>
-      <c r="I278" s="5"/>
+      <c r="I278" s="5">
+        <f>F278+F266</f>
+        <v>9615.48</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" s="22" t="str">
+      <c r="A279" s="23" t="str">
         <f>CONCATENATE("Say ₹ ",F266," + ",F278," x Cost Index")                                           </f>
-        <v>Say ₹ 9396.95 + 222.61 x Cost Index</v>
+        <v>Say ₹ 9395 + 220.48 x Cost Index</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="4"/>
-      <c r="G279" s="23" t="s">
+      <c r="G279" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H279" s="24">
-        <f>(F256+F258)*1.005*1.01*1.15</f>
-        <v>9396.953779</v>
-      </c>
-      <c r="I279" s="24">
-        <f>(F268+F270)*1.005*1.01*1.15</f>
-        <v>222.6055403</v>
+      <c r="H279" s="25">
+        <f>((F256*1.005*1.01)+(F258*1.005))*1.15</f>
+        <v>9395.003451</v>
+      </c>
+      <c r="I279" s="25">
+        <f>((F268*1.005*1.01)+(F270*1.005))*1.15</f>
+        <v>220.484739</v>
       </c>
     </row>
   </sheetData>
